--- a/Horarios.xlsx
+++ b/Horarios.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:H555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1644 - 4 - ING. LUCIRALIA HERNANDEZ HERNANDEZ </t>
+          <t xml:space="preserve">1535 - 2 - DR. VICTOR MANUEL LOMAS BARRIE </t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1562 - 1 - ING. VICTOR MANUEL SANCHEZ ESQUIVEL </t>
+          <t xml:space="preserve">1959 - 2 - DRA. YASMINE MACEDO REZA </t>
         </is>
       </c>
     </row>
@@ -513,6 +513,21 @@
           <t>09:00</t>
         </is>
       </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>2080-6</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2080-6</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1598 - 2 - DRA. CINTIA QUEZADA REYES </t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -520,6 +535,16 @@
           <t>09:30</t>
         </is>
       </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>2080-6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2080-6</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -527,6 +552,21 @@
           <t>10:00</t>
         </is>
       </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>2080-6</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2080-6</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2080 - 6 - MTRO. JOSE FERNANDO GARCIA ROJAS MIRA </t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -534,6 +574,16 @@
           <t>10:30</t>
         </is>
       </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>2080-6</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2080-6</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -541,6 +591,21 @@
           <t>11:00</t>
         </is>
       </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -548,6 +613,21 @@
           <t>11:30</t>
         </is>
       </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -555,6 +635,21 @@
           <t>12:00</t>
         </is>
       </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -562,6 +657,21 @@
           <t>12:30</t>
         </is>
       </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -569,6 +679,16 @@
           <t>13:00</t>
         </is>
       </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>1535-2</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1535-2</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -576,6 +696,16 @@
           <t>13:30</t>
         </is>
       </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>1535-2</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1535-2</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -583,6 +713,16 @@
           <t>14:00</t>
         </is>
       </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>1535-2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1535-2</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -599,17 +739,12 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>1644-4</t>
+          <t>1959-2</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1644-4</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>1644-4</t>
+          <t>1959-2</t>
         </is>
       </c>
     </row>
@@ -621,17 +756,12 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>1644-4</t>
+          <t>1959-2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1644-4</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>1644-4</t>
+          <t>1959-2</t>
         </is>
       </c>
     </row>
@@ -643,27 +773,12 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>1644-4</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1562-1</t>
+          <t>1959-2</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1644-4</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>1562-1</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>1644-4</t>
+          <t>1959-2</t>
         </is>
       </c>
     </row>
@@ -675,27 +790,12 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>1644-4</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>1562-1</t>
+          <t>1959-2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1644-4</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>1562-1</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>1644-4</t>
+          <t>1959-2</t>
         </is>
       </c>
     </row>
@@ -705,16 +805,6 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>1562-1</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>1562-1</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -857,7 +947,7 @@
       </c>
       <c r="H42" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1644 - 4 - ING. LUCIRALIA HERNANDEZ HERNANDEZ </t>
+          <t xml:space="preserve">1535 - 2 - DR. VICTOR MANUEL LOMAS BARRIE </t>
         </is>
       </c>
     </row>
@@ -876,7 +966,7 @@
       </c>
       <c r="H44" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1562 - 2 - M.I. PATRICIA HONG CIRION </t>
+          <t xml:space="preserve">1959 - 2 - DRA. YASMINE MACEDO REZA </t>
         </is>
       </c>
     </row>
@@ -893,6 +983,11 @@
           <t>09:00</t>
         </is>
       </c>
+      <c r="H46" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1598 - 2 - DRA. CINTIA QUEZADA REYES </t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -907,6 +1002,11 @@
           <t>10:00</t>
         </is>
       </c>
+      <c r="H48" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2080 - 20 - ING. HECTOR GERARDO GONZALEZ REZA </t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -921,6 +1021,21 @@
           <t>11:00</t>
         </is>
       </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -928,6 +1043,21 @@
           <t>11:30</t>
         </is>
       </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -935,6 +1065,21 @@
           <t>12:00</t>
         </is>
       </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -942,6 +1087,21 @@
           <t>12:30</t>
         </is>
       </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -949,6 +1109,16 @@
           <t>13:00</t>
         </is>
       </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>1535-2</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>1535-2</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -956,6 +1126,16 @@
           <t>13:30</t>
         </is>
       </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>1535-2</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>1535-2</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -963,6 +1143,16 @@
           <t>14:00</t>
         </is>
       </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>1535-2</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>1535-2</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -979,17 +1169,12 @@
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>1644-4</t>
+          <t>1959-2</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>1644-4</t>
-        </is>
-      </c>
-      <c r="F58" s="2" t="inlineStr">
-        <is>
-          <t>1644-4</t>
+          <t>1959-2</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1186,12 @@
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>1644-4</t>
+          <t>1959-2</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>1644-4</t>
-        </is>
-      </c>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>1644-4</t>
+          <t>1959-2</t>
         </is>
       </c>
     </row>
@@ -1023,17 +1203,12 @@
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>1644-4</t>
+          <t>1959-2</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>1644-4</t>
-        </is>
-      </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>1644-4</t>
+          <t>1959-2</t>
         </is>
       </c>
     </row>
@@ -1045,17 +1220,12 @@
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>1644-4</t>
+          <t>1959-2</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>1644-4</t>
-        </is>
-      </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>1644-4</t>
+          <t>1959-2</t>
         </is>
       </c>
     </row>
@@ -1065,6 +1235,16 @@
           <t>17:00</t>
         </is>
       </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>2080-20</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>2080-20</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1072,6 +1252,16 @@
           <t>17:30</t>
         </is>
       </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>2080-20</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>2080-20</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1079,14 +1269,14 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
-        <is>
-          <t>1562-2</t>
-        </is>
-      </c>
-      <c r="E64" s="2" t="inlineStr">
-        <is>
-          <t>1562-2</t>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>2080-20</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>2080-20</t>
         </is>
       </c>
     </row>
@@ -1096,14 +1286,14 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="C65" s="2" t="inlineStr">
-        <is>
-          <t>1562-2</t>
-        </is>
-      </c>
-      <c r="E65" s="2" t="inlineStr">
-        <is>
-          <t>1562-2</t>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>2080-20</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>2080-20</t>
         </is>
       </c>
     </row>
@@ -1113,16 +1303,6 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="C66" s="2" t="inlineStr">
-        <is>
-          <t>1562-2</t>
-        </is>
-      </c>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t>1562-2</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1237,7 +1417,7 @@
       </c>
       <c r="H82" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1644 - 4 - ING. LUCIRALIA HERNANDEZ HERNANDEZ </t>
+          <t xml:space="preserve">1535 - 2 - DR. VICTOR MANUEL LOMAS BARRIE </t>
         </is>
       </c>
     </row>
@@ -1256,7 +1436,7 @@
       </c>
       <c r="H84" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1562 - 3 - ING. IVAN MARTINEZ PEREZ </t>
+          <t xml:space="preserve">1959 - 2 - DRA. YASMINE MACEDO REZA </t>
         </is>
       </c>
     </row>
@@ -1273,6 +1453,11 @@
           <t>09:00</t>
         </is>
       </c>
+      <c r="H86" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1598 - 2 - DRA. CINTIA QUEZADA REYES </t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1287,6 +1472,11 @@
           <t>10:00</t>
         </is>
       </c>
+      <c r="H88" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2080 - 22 - M.I. JESÚS ULISES ACOSTA ROBLEDO </t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1301,6 +1491,21 @@
           <t>11:00</t>
         </is>
       </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1308,6 +1513,21 @@
           <t>11:30</t>
         </is>
       </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F91" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1315,6 +1535,21 @@
           <t>12:00</t>
         </is>
       </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1322,6 +1557,21 @@
           <t>12:30</t>
         </is>
       </c>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F93" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1329,6 +1579,16 @@
           <t>13:00</t>
         </is>
       </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>1535-2</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>1535-2</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1336,6 +1596,16 @@
           <t>13:30</t>
         </is>
       </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>1535-2</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="inlineStr">
+        <is>
+          <t>1535-2</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1343,6 +1613,16 @@
           <t>14:00</t>
         </is>
       </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>1535-2</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>1535-2</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1359,17 +1639,12 @@
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>1644-4</t>
+          <t>1959-2</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>1644-4</t>
-        </is>
-      </c>
-      <c r="F98" s="2" t="inlineStr">
-        <is>
-          <t>1644-4</t>
+          <t>1959-2</t>
         </is>
       </c>
     </row>
@@ -1381,17 +1656,12 @@
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>1644-4</t>
+          <t>1959-2</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>1644-4</t>
-        </is>
-      </c>
-      <c r="F99" s="2" t="inlineStr">
-        <is>
-          <t>1644-4</t>
+          <t>1959-2</t>
         </is>
       </c>
     </row>
@@ -1403,17 +1673,12 @@
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>1644-4</t>
+          <t>1959-2</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>1644-4</t>
-        </is>
-      </c>
-      <c r="F100" s="2" t="inlineStr">
-        <is>
-          <t>1644-4</t>
+          <t>1959-2</t>
         </is>
       </c>
     </row>
@@ -1425,17 +1690,12 @@
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>1644-4</t>
+          <t>1959-2</t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>1644-4</t>
-        </is>
-      </c>
-      <c r="F101" s="2" t="inlineStr">
-        <is>
-          <t>1644-4</t>
+          <t>1959-2</t>
         </is>
       </c>
     </row>
@@ -1445,6 +1705,11 @@
           <t>17:00</t>
         </is>
       </c>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>2080-22</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1452,6 +1717,11 @@
           <t>17:30</t>
         </is>
       </c>
+      <c r="F103" s="2" t="inlineStr">
+        <is>
+          <t>2080-22</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1459,6 +1729,11 @@
           <t>18:00</t>
         </is>
       </c>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>2080-22</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -1466,6 +1741,11 @@
           <t>18:30</t>
         </is>
       </c>
+      <c r="F105" s="2" t="inlineStr">
+        <is>
+          <t>2080-22</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -1473,6 +1753,11 @@
           <t>19:00</t>
         </is>
       </c>
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>2080-22</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -1480,6 +1765,11 @@
           <t>19:30</t>
         </is>
       </c>
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>2080-22</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -1487,6 +1777,11 @@
           <t>20:00</t>
         </is>
       </c>
+      <c r="F108" s="2" t="inlineStr">
+        <is>
+          <t>2080-22</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -1494,14 +1789,9 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="C109" s="2" t="inlineStr">
-        <is>
-          <t>1562-3</t>
-        </is>
-      </c>
-      <c r="E109" s="2" t="inlineStr">
-        <is>
-          <t>1562-3</t>
+      <c r="F109" s="2" t="inlineStr">
+        <is>
+          <t>2080-22</t>
         </is>
       </c>
     </row>
@@ -1511,16 +1801,6 @@
           <t>21:00</t>
         </is>
       </c>
-      <c r="C110" s="2" t="inlineStr">
-        <is>
-          <t>1562-3</t>
-        </is>
-      </c>
-      <c r="E110" s="2" t="inlineStr">
-        <is>
-          <t>1562-3</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -1528,16 +1808,6 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="C111" s="2" t="inlineStr">
-        <is>
-          <t>1562-3</t>
-        </is>
-      </c>
-      <c r="E111" s="2" t="inlineStr">
-        <is>
-          <t>1562-3</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -1617,7 +1887,7 @@
       </c>
       <c r="H122" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1644 - 6 - M.C. DAVID RICARDO RUIZ REYES </t>
+          <t xml:space="preserve">1535 - 2 - DR. VICTOR MANUEL LOMAS BARRIE </t>
         </is>
       </c>
     </row>
@@ -1636,7 +1906,7 @@
       </c>
       <c r="H124" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1562 - 3 - ING. IVAN MARTINEZ PEREZ </t>
+          <t xml:space="preserve">1959 - 2 - DRA. YASMINE MACEDO REZA </t>
         </is>
       </c>
     </row>
@@ -1653,6 +1923,11 @@
           <t>09:00</t>
         </is>
       </c>
+      <c r="H126" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1598 - 2 - DRA. CINTIA QUEZADA REYES </t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -1667,6 +1942,11 @@
           <t>10:00</t>
         </is>
       </c>
+      <c r="H128" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2080 - 23 - ING. HECTOR GERARDO GONZALEZ REZA </t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -1681,6 +1961,21 @@
           <t>11:00</t>
         </is>
       </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -1688,6 +1983,21 @@
           <t>11:30</t>
         </is>
       </c>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F131" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -1695,6 +2005,21 @@
           <t>12:00</t>
         </is>
       </c>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F132" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -1702,6 +2027,21 @@
           <t>12:30</t>
         </is>
       </c>
+      <c r="B133" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -1709,6 +2049,16 @@
           <t>13:00</t>
         </is>
       </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>1535-2</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="inlineStr">
+        <is>
+          <t>1535-2</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -1716,6 +2066,16 @@
           <t>13:30</t>
         </is>
       </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>1535-2</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="inlineStr">
+        <is>
+          <t>1535-2</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -1723,6 +2083,16 @@
           <t>14:00</t>
         </is>
       </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>1535-2</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="inlineStr">
+        <is>
+          <t>1535-2</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -1737,6 +2107,16 @@
           <t>15:00</t>
         </is>
       </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -1744,6 +2124,16 @@
           <t>15:30</t>
         </is>
       </c>
+      <c r="B139" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -1751,6 +2141,16 @@
           <t>16:00</t>
         </is>
       </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -1758,6 +2158,16 @@
           <t>16:30</t>
         </is>
       </c>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -1765,21 +2175,6 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="C142" s="2" t="inlineStr">
-        <is>
-          <t>1644-6</t>
-        </is>
-      </c>
-      <c r="D142" s="2" t="inlineStr">
-        <is>
-          <t>1644-6</t>
-        </is>
-      </c>
-      <c r="E142" s="2" t="inlineStr">
-        <is>
-          <t>1644-6</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -1787,21 +2182,6 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="C143" s="2" t="inlineStr">
-        <is>
-          <t>1644-6</t>
-        </is>
-      </c>
-      <c r="D143" s="2" t="inlineStr">
-        <is>
-          <t>1644-6</t>
-        </is>
-      </c>
-      <c r="E143" s="2" t="inlineStr">
-        <is>
-          <t>1644-6</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -1809,21 +2189,6 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="C144" s="2" t="inlineStr">
-        <is>
-          <t>1644-6</t>
-        </is>
-      </c>
-      <c r="D144" s="2" t="inlineStr">
-        <is>
-          <t>1644-6</t>
-        </is>
-      </c>
-      <c r="E144" s="2" t="inlineStr">
-        <is>
-          <t>1644-6</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -1831,21 +2196,6 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="C145" s="2" t="inlineStr">
-        <is>
-          <t>1644-6</t>
-        </is>
-      </c>
-      <c r="D145" s="2" t="inlineStr">
-        <is>
-          <t>1644-6</t>
-        </is>
-      </c>
-      <c r="E145" s="2" t="inlineStr">
-        <is>
-          <t>1644-6</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -1853,6 +2203,16 @@
           <t>19:00</t>
         </is>
       </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>2080-23</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="inlineStr">
+        <is>
+          <t>2080-23</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -1860,6 +2220,16 @@
           <t>19:30</t>
         </is>
       </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>2080-23</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="inlineStr">
+        <is>
+          <t>2080-23</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -1867,6 +2237,16 @@
           <t>20:00</t>
         </is>
       </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>2080-23</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="inlineStr">
+        <is>
+          <t>2080-23</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -1874,14 +2254,14 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="C149" s="2" t="inlineStr">
-        <is>
-          <t>1562-3</t>
-        </is>
-      </c>
-      <c r="E149" s="2" t="inlineStr">
-        <is>
-          <t>1562-3</t>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>2080-23</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="inlineStr">
+        <is>
+          <t>2080-23</t>
         </is>
       </c>
     </row>
@@ -1891,16 +2271,6 @@
           <t>21:00</t>
         </is>
       </c>
-      <c r="C150" s="2" t="inlineStr">
-        <is>
-          <t>1562-3</t>
-        </is>
-      </c>
-      <c r="E150" s="2" t="inlineStr">
-        <is>
-          <t>1562-3</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -1908,16 +2278,6 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="C151" s="2" t="inlineStr">
-        <is>
-          <t>1562-3</t>
-        </is>
-      </c>
-      <c r="E151" s="2" t="inlineStr">
-        <is>
-          <t>1562-3</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -1942,6 +2302,4706 @@
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Datos del Grupo</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H162" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1535 - 6 - M.I. ALBERTO NAVARRETE HERNANDEZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="H164" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1959 - 2 - DRA. YASMINE MACEDO REZA </t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>2080-6</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="inlineStr">
+        <is>
+          <t>2080-6</t>
+        </is>
+      </c>
+      <c r="H166" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1598 - 2 - DRA. CINTIA QUEZADA REYES </t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="inlineStr">
+        <is>
+          <t>2080-6</t>
+        </is>
+      </c>
+      <c r="D167" s="2" t="inlineStr">
+        <is>
+          <t>2080-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>2080-6</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="inlineStr">
+        <is>
+          <t>2080-6</t>
+        </is>
+      </c>
+      <c r="H168" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2080 - 6 - MTRO. JOSE FERNANDO GARCIA ROJAS MIRA </t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="inlineStr">
+        <is>
+          <t>2080-6</t>
+        </is>
+      </c>
+      <c r="D169" s="2" t="inlineStr">
+        <is>
+          <t>2080-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F170" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F171" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F172" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F173" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>1535-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>1535-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>1535-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>1535-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>1535-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>1535-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Datos del Grupo</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H202" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1535 - 6 - M.I. ALBERTO NAVARRETE HERNANDEZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="H204" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1959 - 2 - DRA. YASMINE MACEDO REZA </t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="H206" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1598 - 2 - DRA. CINTIA QUEZADA REYES </t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H208" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2080 - 15 - ING. EDUARDO CARRANZA TORRES </t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F210" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D211" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F211" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D212" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F212" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>2080-15</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="inlineStr">
+        <is>
+          <t>2080-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="B215" s="2" t="inlineStr">
+        <is>
+          <t>2080-15</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="inlineStr">
+        <is>
+          <t>2080-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="inlineStr">
+        <is>
+          <t>2080-15</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="inlineStr">
+        <is>
+          <t>2080-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>2080-15</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="inlineStr">
+        <is>
+          <t>2080-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="F218" s="2" t="inlineStr">
+        <is>
+          <t>1535-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B219" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D219" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="F219" s="2" t="inlineStr">
+        <is>
+          <t>1535-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D220" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="F220" s="2" t="inlineStr">
+        <is>
+          <t>1535-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="B221" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D221" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>1535-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>1535-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t>1535-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Datos del Grupo</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H242" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1535 - 6 - M.I. ALBERTO NAVARRETE HERNANDEZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="H244" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1959 - 2 - DRA. YASMINE MACEDO REZA </t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="H246" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1598 - 2 - DRA. CINTIA QUEZADA REYES </t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H248" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2080 - 16 - MTRA. MARIA FERNANDA CARRISOZA ZAMORA </t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="B250" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D250" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F250" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="B251" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D251" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F251" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B252" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D252" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F252" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B253" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D253" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F253" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="B254" s="2" t="inlineStr">
+        <is>
+          <t>2080-16</t>
+        </is>
+      </c>
+      <c r="D254" s="2" t="inlineStr">
+        <is>
+          <t>2080-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="B255" s="2" t="inlineStr">
+        <is>
+          <t>2080-16</t>
+        </is>
+      </c>
+      <c r="D255" s="2" t="inlineStr">
+        <is>
+          <t>2080-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="B256" s="2" t="inlineStr">
+        <is>
+          <t>2080-16</t>
+        </is>
+      </c>
+      <c r="D256" s="2" t="inlineStr">
+        <is>
+          <t>2080-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="B257" s="2" t="inlineStr">
+        <is>
+          <t>2080-16</t>
+        </is>
+      </c>
+      <c r="D257" s="2" t="inlineStr">
+        <is>
+          <t>2080-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="B258" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D258" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="F258" s="2" t="inlineStr">
+        <is>
+          <t>1535-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B259" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D259" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="F259" s="2" t="inlineStr">
+        <is>
+          <t>1535-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="B260" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D260" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="F260" s="2" t="inlineStr">
+        <is>
+          <t>1535-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="B261" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D261" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="F261" s="2" t="inlineStr">
+        <is>
+          <t>1535-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="F262" s="2" t="inlineStr">
+        <is>
+          <t>1535-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="F263" s="2" t="inlineStr">
+        <is>
+          <t>1535-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Datos del Grupo</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H282" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1535 - 6 - M.I. ALBERTO NAVARRETE HERNANDEZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="H284" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1959 - 2 - DRA. YASMINE MACEDO REZA </t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="H286" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1598 - 2 - DRA. CINTIA QUEZADA REYES </t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H288" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2080 - 20 - ING. HECTOR GERARDO GONZALEZ REZA </t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="B290" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D290" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F290" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="B291" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D291" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F291" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B292" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D292" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F292" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B293" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D293" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F293" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="B298" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D298" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="F298" s="2" t="inlineStr">
+        <is>
+          <t>1535-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B299" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D299" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="F299" s="2" t="inlineStr">
+        <is>
+          <t>1535-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="B300" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D300" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="F300" s="2" t="inlineStr">
+        <is>
+          <t>1535-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="B301" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D301" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="F301" s="2" t="inlineStr">
+        <is>
+          <t>1535-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="B302" s="2" t="inlineStr">
+        <is>
+          <t>2080-20</t>
+        </is>
+      </c>
+      <c r="D302" s="2" t="inlineStr">
+        <is>
+          <t>2080-20</t>
+        </is>
+      </c>
+      <c r="F302" s="2" t="inlineStr">
+        <is>
+          <t>1535-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="B303" s="2" t="inlineStr">
+        <is>
+          <t>2080-20</t>
+        </is>
+      </c>
+      <c r="D303" s="2" t="inlineStr">
+        <is>
+          <t>2080-20</t>
+        </is>
+      </c>
+      <c r="F303" s="2" t="inlineStr">
+        <is>
+          <t>1535-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="B304" s="2" t="inlineStr">
+        <is>
+          <t>2080-20</t>
+        </is>
+      </c>
+      <c r="D304" s="2" t="inlineStr">
+        <is>
+          <t>2080-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="B305" s="2" t="inlineStr">
+        <is>
+          <t>2080-20</t>
+        </is>
+      </c>
+      <c r="D305" s="2" t="inlineStr">
+        <is>
+          <t>2080-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Datos del Grupo</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H322" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1535 - 6 - M.I. ALBERTO NAVARRETE HERNANDEZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="H324" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1959 - 2 - DRA. YASMINE MACEDO REZA </t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="H326" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1598 - 2 - DRA. CINTIA QUEZADA REYES </t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H328" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2080 - 23 - ING. HECTOR GERARDO GONZALEZ REZA </t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="B330" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D330" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F330" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="B331" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D331" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F331" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B332" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D332" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F332" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B333" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D333" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F333" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="B338" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D338" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="F338" s="2" t="inlineStr">
+        <is>
+          <t>1535-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B339" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D339" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="F339" s="2" t="inlineStr">
+        <is>
+          <t>1535-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="B340" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D340" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="F340" s="2" t="inlineStr">
+        <is>
+          <t>1535-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="B341" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D341" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="F341" s="2" t="inlineStr">
+        <is>
+          <t>1535-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="F342" s="2" t="inlineStr">
+        <is>
+          <t>1535-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="F343" s="2" t="inlineStr">
+        <is>
+          <t>1535-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B346" s="2" t="inlineStr">
+        <is>
+          <t>2080-23</t>
+        </is>
+      </c>
+      <c r="D346" s="2" t="inlineStr">
+        <is>
+          <t>2080-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B347" s="2" t="inlineStr">
+        <is>
+          <t>2080-23</t>
+        </is>
+      </c>
+      <c r="D347" s="2" t="inlineStr">
+        <is>
+          <t>2080-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="B348" s="2" t="inlineStr">
+        <is>
+          <t>2080-23</t>
+        </is>
+      </c>
+      <c r="D348" s="2" t="inlineStr">
+        <is>
+          <t>2080-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="B349" s="2" t="inlineStr">
+        <is>
+          <t>2080-23</t>
+        </is>
+      </c>
+      <c r="D349" s="2" t="inlineStr">
+        <is>
+          <t>2080-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>Datos del Grupo</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H362" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1535 - 7 - M.I. BRYAN EMMANUEL ALVAREZ SERNA </t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="H364" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1959 - 2 - DRA. YASMINE MACEDO REZA </t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="B366" s="2" t="inlineStr">
+        <is>
+          <t>2080-6</t>
+        </is>
+      </c>
+      <c r="D366" s="2" t="inlineStr">
+        <is>
+          <t>2080-6</t>
+        </is>
+      </c>
+      <c r="H366" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1598 - 2 - DRA. CINTIA QUEZADA REYES </t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="B367" s="2" t="inlineStr">
+        <is>
+          <t>2080-6</t>
+        </is>
+      </c>
+      <c r="D367" s="2" t="inlineStr">
+        <is>
+          <t>2080-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B368" s="2" t="inlineStr">
+        <is>
+          <t>2080-6</t>
+        </is>
+      </c>
+      <c r="D368" s="2" t="inlineStr">
+        <is>
+          <t>2080-6</t>
+        </is>
+      </c>
+      <c r="H368" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2080 - 6 - MTRO. JOSE FERNANDO GARCIA ROJAS MIRA </t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="B369" s="2" t="inlineStr">
+        <is>
+          <t>2080-6</t>
+        </is>
+      </c>
+      <c r="D369" s="2" t="inlineStr">
+        <is>
+          <t>2080-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="B370" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D370" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F370" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="B371" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D371" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F371" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B372" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D372" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F372" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B373" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D373" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F373" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="B378" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D378" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B379" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D379" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="B380" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D380" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="B381" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D381" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B386" s="2" t="inlineStr">
+        <is>
+          <t>1535-7</t>
+        </is>
+      </c>
+      <c r="D386" s="2" t="inlineStr">
+        <is>
+          <t>1535-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B387" s="2" t="inlineStr">
+        <is>
+          <t>1535-7</t>
+        </is>
+      </c>
+      <c r="D387" s="2" t="inlineStr">
+        <is>
+          <t>1535-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="B388" s="2" t="inlineStr">
+        <is>
+          <t>1535-7</t>
+        </is>
+      </c>
+      <c r="D388" s="2" t="inlineStr">
+        <is>
+          <t>1535-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>Datos del Grupo</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H402" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1535 - 7 - M.I. BRYAN EMMANUEL ALVAREZ SERNA </t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="H404" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1959 - 2 - DRA. YASMINE MACEDO REZA </t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="H406" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1598 - 2 - DRA. CINTIA QUEZADA REYES </t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H408" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2080 - 15 - ING. EDUARDO CARRANZA TORRES </t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="B410" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D410" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F410" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="B411" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D411" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F411" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B412" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D412" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F412" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B413" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D413" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F413" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="B414" s="2" t="inlineStr">
+        <is>
+          <t>2080-15</t>
+        </is>
+      </c>
+      <c r="D414" s="2" t="inlineStr">
+        <is>
+          <t>2080-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="B415" s="2" t="inlineStr">
+        <is>
+          <t>2080-15</t>
+        </is>
+      </c>
+      <c r="D415" s="2" t="inlineStr">
+        <is>
+          <t>2080-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="B416" s="2" t="inlineStr">
+        <is>
+          <t>2080-15</t>
+        </is>
+      </c>
+      <c r="D416" s="2" t="inlineStr">
+        <is>
+          <t>2080-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="B417" s="2" t="inlineStr">
+        <is>
+          <t>2080-15</t>
+        </is>
+      </c>
+      <c r="D417" s="2" t="inlineStr">
+        <is>
+          <t>2080-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="B418" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D418" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B419" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D419" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="B420" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D420" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="B421" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D421" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B426" s="2" t="inlineStr">
+        <is>
+          <t>1535-7</t>
+        </is>
+      </c>
+      <c r="D426" s="2" t="inlineStr">
+        <is>
+          <t>1535-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B427" s="2" t="inlineStr">
+        <is>
+          <t>1535-7</t>
+        </is>
+      </c>
+      <c r="D427" s="2" t="inlineStr">
+        <is>
+          <t>1535-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="B428" s="2" t="inlineStr">
+        <is>
+          <t>1535-7</t>
+        </is>
+      </c>
+      <c r="D428" s="2" t="inlineStr">
+        <is>
+          <t>1535-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>Datos del Grupo</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H442" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1535 - 7 - M.I. BRYAN EMMANUEL ALVAREZ SERNA </t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="H444" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1959 - 2 - DRA. YASMINE MACEDO REZA </t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="H446" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1598 - 2 - DRA. CINTIA QUEZADA REYES </t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H448" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2080 - 16 - MTRA. MARIA FERNANDA CARRISOZA ZAMORA </t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="B450" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D450" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F450" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="B451" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D451" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F451" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B452" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D452" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F452" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B453" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D453" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F453" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="B454" s="2" t="inlineStr">
+        <is>
+          <t>2080-16</t>
+        </is>
+      </c>
+      <c r="D454" s="2" t="inlineStr">
+        <is>
+          <t>2080-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="B455" s="2" t="inlineStr">
+        <is>
+          <t>2080-16</t>
+        </is>
+      </c>
+      <c r="D455" s="2" t="inlineStr">
+        <is>
+          <t>2080-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="B456" s="2" t="inlineStr">
+        <is>
+          <t>2080-16</t>
+        </is>
+      </c>
+      <c r="D456" s="2" t="inlineStr">
+        <is>
+          <t>2080-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="B457" s="2" t="inlineStr">
+        <is>
+          <t>2080-16</t>
+        </is>
+      </c>
+      <c r="D457" s="2" t="inlineStr">
+        <is>
+          <t>2080-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="B458" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D458" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B459" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D459" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="B460" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D460" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="B461" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D461" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B466" s="2" t="inlineStr">
+        <is>
+          <t>1535-7</t>
+        </is>
+      </c>
+      <c r="D466" s="2" t="inlineStr">
+        <is>
+          <t>1535-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B467" s="2" t="inlineStr">
+        <is>
+          <t>1535-7</t>
+        </is>
+      </c>
+      <c r="D467" s="2" t="inlineStr">
+        <is>
+          <t>1535-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="B468" s="2" t="inlineStr">
+        <is>
+          <t>1535-7</t>
+        </is>
+      </c>
+      <c r="D468" s="2" t="inlineStr">
+        <is>
+          <t>1535-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>Datos del Grupo</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H482" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1535 - 7 - M.I. BRYAN EMMANUEL ALVAREZ SERNA </t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="H484" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1959 - 2 - DRA. YASMINE MACEDO REZA </t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="H486" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1598 - 2 - DRA. CINTIA QUEZADA REYES </t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H488" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2080 - 20 - ING. HECTOR GERARDO GONZALEZ REZA </t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="B490" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D490" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F490" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="B491" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D491" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F491" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B492" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D492" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F492" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B493" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D493" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F493" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="B498" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D498" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B499" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D499" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="B500" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D500" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="B501" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D501" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="B502" s="2" t="inlineStr">
+        <is>
+          <t>2080-20</t>
+        </is>
+      </c>
+      <c r="D502" s="2" t="inlineStr">
+        <is>
+          <t>2080-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="B503" s="2" t="inlineStr">
+        <is>
+          <t>2080-20</t>
+        </is>
+      </c>
+      <c r="D503" s="2" t="inlineStr">
+        <is>
+          <t>2080-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="B504" s="2" t="inlineStr">
+        <is>
+          <t>2080-20</t>
+        </is>
+      </c>
+      <c r="D504" s="2" t="inlineStr">
+        <is>
+          <t>2080-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="B505" s="2" t="inlineStr">
+        <is>
+          <t>2080-20</t>
+        </is>
+      </c>
+      <c r="D505" s="2" t="inlineStr">
+        <is>
+          <t>2080-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B506" s="2" t="inlineStr">
+        <is>
+          <t>1535-7</t>
+        </is>
+      </c>
+      <c r="D506" s="2" t="inlineStr">
+        <is>
+          <t>1535-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B507" s="2" t="inlineStr">
+        <is>
+          <t>1535-7</t>
+        </is>
+      </c>
+      <c r="D507" s="2" t="inlineStr">
+        <is>
+          <t>1535-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="B508" s="2" t="inlineStr">
+        <is>
+          <t>1535-7</t>
+        </is>
+      </c>
+      <c r="D508" s="2" t="inlineStr">
+        <is>
+          <t>1535-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>Datos del Grupo</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="H522" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1535 - 7 - M.I. BRYAN EMMANUEL ALVAREZ SERNA </t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="H524" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1959 - 2 - DRA. YASMINE MACEDO REZA </t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="H526" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1598 - 2 - DRA. CINTIA QUEZADA REYES </t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H528" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2080 - 22 - M.I. JESÚS ULISES ACOSTA ROBLEDO </t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="B530" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D530" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F530" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="B531" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D531" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F531" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B532" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D532" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F532" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B533" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="D533" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+      <c r="F533" s="2" t="inlineStr">
+        <is>
+          <t>1598-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="B538" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D538" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B539" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D539" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="B540" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D540" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="B541" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+      <c r="D541" s="2" t="inlineStr">
+        <is>
+          <t>1959-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="F542" s="2" t="inlineStr">
+        <is>
+          <t>2080-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="F543" s="2" t="inlineStr">
+        <is>
+          <t>2080-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="F544" s="2" t="inlineStr">
+        <is>
+          <t>2080-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="F545" s="2" t="inlineStr">
+        <is>
+          <t>2080-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B546" s="2" t="inlineStr">
+        <is>
+          <t>1535-7</t>
+        </is>
+      </c>
+      <c r="D546" s="2" t="inlineStr">
+        <is>
+          <t>1535-7</t>
+        </is>
+      </c>
+      <c r="F546" s="2" t="inlineStr">
+        <is>
+          <t>2080-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B547" s="2" t="inlineStr">
+        <is>
+          <t>1535-7</t>
+        </is>
+      </c>
+      <c r="D547" s="2" t="inlineStr">
+        <is>
+          <t>1535-7</t>
+        </is>
+      </c>
+      <c r="F547" s="2" t="inlineStr">
+        <is>
+          <t>2080-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="B548" s="2" t="inlineStr">
+        <is>
+          <t>1535-7</t>
+        </is>
+      </c>
+      <c r="D548" s="2" t="inlineStr">
+        <is>
+          <t>1535-7</t>
+        </is>
+      </c>
+      <c r="F548" s="2" t="inlineStr">
+        <is>
+          <t>2080-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="F549" s="2" t="inlineStr">
+        <is>
+          <t>2080-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
         <is>
           <t>23:30</t>
         </is>
